--- a/medicine/Handicap/Le_Jeu_de_la_vérité_(film,_2014)/Le_Jeu_de_la_vérité_(film,_2014).xlsx
+++ b/medicine/Handicap/Le_Jeu_de_la_vérité_(film,_2014)/Le_Jeu_de_la_vérité_(film,_2014).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Jeu_de_la_v%C3%A9rit%C3%A9_(film,_2014)</t>
+          <t>Le_Jeu_de_la_vérité_(film,_2014)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jeu de la vérité est une comédie française réalisée par François Desagnat et sortie en 2014.
 Il s'agit de la transposition cinématographique de la pièce éponyme de Philippe Lellouche, qui en signe l'adaptation.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Jeu_de_la_v%C3%A9rit%C3%A9_(film,_2014)</t>
+          <t>Le_Jeu_de_la_vérité_(film,_2014)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque semaine, trois quadras se retrouvent autour d’un dîner. Margaux, un de leurs coups de cœur d’adolescence, se présente à l’un de ces dîners avec une surprise, au point d’en perturber la soirée.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Jeu_de_la_v%C3%A9rit%C3%A9_(film,_2014)</t>
+          <t>Le_Jeu_de_la_vérité_(film,_2014)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Jeu de la Vérité
 Réalisation : François Desagnat
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Jeu_de_la_v%C3%A9rit%C3%A9_(film,_2014)</t>
+          <t>Le_Jeu_de_la_vérité_(film,_2014)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vanessa Demouy : Margaux
 David Brécourt : Fabrice
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Jeu_de_la_v%C3%A9rit%C3%A9_(film,_2014)</t>
+          <t>Le_Jeu_de_la_vérité_(film,_2014)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,8 +652,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a eu lieu dans le studio 1 de la Cité du Cinéma de Luc Besson à Saint-Denis pendant 1 mois.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu dans le studio 1 de la Cité du Cinéma de Luc Besson à Saint-Denis pendant 1 mois.
 </t>
         </is>
       </c>
@@ -646,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Jeu_de_la_v%C3%A9rit%C3%A9_(film,_2014)</t>
+          <t>Le_Jeu_de_la_vérité_(film,_2014)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,11 +689,51 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-En France, le site Allociné propose une note moyenne de 2,3⁄5 à partir de l'interprétation de critiques provenant de 3 titres de presse[1].
-Selon le Figaro, le film figure en cinquième position dans la liste des vingt films français et étrangers les plus « boudés par le public » en 2014[2].
-Box-office
-Le film est un cuisant échec avec seulement 50 000 places vendues[3].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné propose une note moyenne de 2,3⁄5 à partir de l'interprétation de critiques provenant de 3 titres de presse.
+Selon le Figaro, le film figure en cinquième position dans la liste des vingt films français et étrangers les plus « boudés par le public » en 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Jeu_de_la_vérité_(film,_2014)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Jeu_de_la_v%C3%A9rit%C3%A9_(film,_2014)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est un cuisant échec avec seulement 50 000 places vendues.
 </t>
         </is>
       </c>
